--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3446207.810573332</v>
+        <v>3443663.217879047</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>109.9645463939868</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>68.11693918766147</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>31.97840579857315</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>130.4949840230023</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.10833718734084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>250.2660449448833</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404937</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425892</v>
+        <v>23.94240680425901</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>108.3453157090801</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>38.37920805819508</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074786</v>
+        <v>44.3306063007479</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -1029,16 +1029,16 @@
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>29.43305940534655</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>79.77074001252494</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>101.8523455598182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>121.0231940592003</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>81.61065509760168</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1212,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>118.8134831477283</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -1266,19 +1266,19 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>62.82850251969686</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>30.37977552228272</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>185.9158911817641</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784683</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>60.42721558712839</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>198.7868646016079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560513</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.0635245304607</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>29.24923305751576</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>134.4940861694917</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>23.41986852521065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>6.600826611594925</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>96.99837838564358</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>92.87435055577281</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>37.40501058442985</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.2301075198431</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356917</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>61.6215214068367</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>127.6065435523126</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>139.5986654064064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.5974673148102</v>
+        <v>133.0228471103746</v>
       </c>
       <c r="C2" t="n">
-        <v>224.5974673148102</v>
+        <v>133.0228471103746</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148102</v>
+        <v>133.0228471103746</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832529</v>
+        <v>133.0228471103746</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912182</v>
+        <v>126.0773463611711</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123837</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985593</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262261</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262261</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="T2" t="n">
-        <v>603.4370373477801</v>
+        <v>322.4426321268596</v>
       </c>
       <c r="U2" t="n">
-        <v>414.0172523312952</v>
+        <v>133.0228471103746</v>
       </c>
       <c r="V2" t="n">
-        <v>224.5974673148102</v>
+        <v>133.0228471103746</v>
       </c>
       <c r="W2" t="n">
-        <v>224.5974673148102</v>
+        <v>133.0228471103746</v>
       </c>
       <c r="X2" t="n">
-        <v>224.5974673148102</v>
+        <v>133.0228471103746</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5974673148102</v>
+        <v>133.0228471103746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.0982375934587</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C3" t="n">
-        <v>265.7968175949</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264287</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264287</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264287</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264287</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099437</v>
+        <v>525.6547321810256</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099437</v>
+        <v>336.2349471645405</v>
       </c>
       <c r="X3" t="n">
-        <v>298.0982375934587</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.0982375934587</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910444</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910444</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.7135870446812</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="C5" t="n">
-        <v>457.9196022518697</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="D5" t="n">
-        <v>457.9196022518697</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="E5" t="n">
-        <v>457.9196022518697</v>
+        <v>53.87919821146561</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226215</v>
+        <v>46.93369746226213</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017222</v>
+        <v>111.670553901722</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746984</v>
+        <v>277.980716674698</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030771</v>
+        <v>521.2049416030766</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709193</v>
+        <v>823.5081935709187</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582754</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079242</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
         <v>1621.82224833276</v>
@@ -4589,28 +4589,28 @@
         <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540655</v>
+        <v>1703.718566540654</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301003</v>
+        <v>1562.810726301002</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.951391437439</v>
+        <v>1562.810726301002</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.313427108803</v>
+        <v>1309.172761972366</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.313427108803</v>
+        <v>1309.172761972366</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.313427108803</v>
+        <v>1309.172761972366</v>
       </c>
       <c r="X5" t="n">
-        <v>1097.313427108803</v>
+        <v>935.7070037112862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1097.313427108803</v>
+        <v>826.2672908738316</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>478.941624428572</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="C6" t="n">
-        <v>478.941624428572</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="D6" t="n">
-        <v>330.0072147673207</v>
+        <v>193.7955113222132</v>
       </c>
       <c r="E6" t="n">
-        <v>170.7697597618652</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="F6" t="n">
-        <v>170.7697597618652</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="G6" t="n">
-        <v>132.0028829354055</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787554</v>
+        <v>61.66788464787544</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806068</v>
+        <v>186.1577239806066</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189987</v>
+        <v>399.8722171189984</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223514</v>
+        <v>668.6238185223508</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352498</v>
+        <v>958.8971200352489</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228321</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639511</v>
+        <v>1378.17623363951</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906552</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703776</v>
+        <v>1401.100270703775</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699372</v>
+        <v>1258.30937869937</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419127</v>
+        <v>1062.768760419125</v>
       </c>
       <c r="U6" t="n">
-        <v>1062.768760419127</v>
+        <v>834.6536183746815</v>
       </c>
       <c r="V6" t="n">
-        <v>1062.768760419127</v>
+        <v>599.5015101429387</v>
       </c>
       <c r="W6" t="n">
-        <v>1062.768760419127</v>
+        <v>569.7711471072352</v>
       </c>
       <c r="X6" t="n">
-        <v>854.9172602135939</v>
+        <v>569.7711471072352</v>
       </c>
       <c r="Y6" t="n">
-        <v>647.15696144864</v>
+        <v>362.0108483422812</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.0082798116193</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="C7" t="n">
-        <v>150.0082798116193</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="D7" t="n">
-        <v>150.0082798116193</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="E7" t="n">
-        <v>150.0082798116193</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="F7" t="n">
-        <v>150.0082798116193</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="G7" t="n">
-        <v>150.0082798116193</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0082798116193</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675773</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574711</v>
+        <v>64.24066662574702</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158412</v>
+        <v>132.1299861584118</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347978</v>
+        <v>206.9680378347975</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195375</v>
+        <v>287.8841338195371</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934727</v>
+        <v>342.3101561934723</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858016</v>
+        <v>369.8190495858011</v>
       </c>
       <c r="R7" t="n">
-        <v>252.8894369427488</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="S7" t="n">
-        <v>252.8894369427488</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="T7" t="n">
-        <v>252.8894369427488</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="U7" t="n">
-        <v>252.8894369427488</v>
+        <v>289.2425445226446</v>
       </c>
       <c r="V7" t="n">
-        <v>252.8894369427488</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="W7" t="n">
-        <v>252.8894369427488</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="X7" t="n">
-        <v>252.8894369427488</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.0082798116193</v>
+        <v>34.55805631675771</v>
       </c>
     </row>
     <row r="8">
@@ -4793,28 +4793,28 @@
         <v>134.3129757509312</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4832,22 +4832,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>2046.214176339804</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W8" t="n">
-        <v>2046.214176339804</v>
+        <v>1351.910009448963</v>
       </c>
       <c r="X8" t="n">
-        <v>1672.748418078724</v>
+        <v>978.4442511878833</v>
       </c>
       <c r="Y8" t="n">
-        <v>1282.609086102912</v>
+        <v>896.0092460387907</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.2487345683987</v>
+        <v>503.6326292653554</v>
       </c>
       <c r="C9" t="n">
-        <v>542.2487345683987</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D9" t="n">
-        <v>542.2487345683987</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E9" t="n">
-        <v>422.235115227259</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
         <v>43.36919653809306</v>
@@ -4881,16 +4881,16 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
         <v>1166.88538687358</v>
@@ -4899,34 +4899,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1627.262386835204</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>1432.55206530918</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081622</v>
+        <v>1432.55206530918</v>
       </c>
       <c r="V9" t="n">
-        <v>1172.461727081622</v>
+        <v>1197.399957077437</v>
       </c>
       <c r="W9" t="n">
-        <v>918.2243703534207</v>
+        <v>943.1626003492358</v>
       </c>
       <c r="X9" t="n">
-        <v>918.2243703534207</v>
+        <v>735.311100143703</v>
       </c>
       <c r="Y9" t="n">
-        <v>710.4640715884668</v>
+        <v>671.8479662854234</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>411.1248508126813</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>242.1886678847744</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>242.1886678847744</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>242.1886678847744</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
         <v>43.36919653809306</v>
@@ -4963,49 +4963,49 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>411.1248508126813</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>411.1248508126813</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>411.1248508126813</v>
+        <v>332.4955175640695</v>
       </c>
       <c r="U10" t="n">
-        <v>411.1248508126813</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V10" t="n">
-        <v>411.1248508126813</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>411.1248508126813</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>411.1248508126813</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>411.1248508126813</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5030,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2063.313436506268</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1774.238209850466</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1519.553721644579</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1230.136551607618</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1002.147000709601</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>781.3544215660705</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452622</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718139</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.306025422647</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>929.3698424947402</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>779.2532030824044</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>631.3401095000113</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.747069396417</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>1279.954490252887</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>221.3431781811722</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.73118040114</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>699.73118040114</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1619.578945309888</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1330.161775272927</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1102.17222437491</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>881.3796452313798</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770319</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,16 +6066,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556945</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>415.5933575433587</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>267.6802639609656</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6190,7 +6190,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,16 +6309,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556945</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>415.5933575433587</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>415.5933575433587</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1888.077129657224</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>564.5188827892232</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>416.6057892068301</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>269.7158417089197</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>269.7158417089197</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,10 +6701,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>527.7722521572603</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>783.5579673960132</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>614.6217844681063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5051450557705</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.4644740681603</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>465.5282911402533</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2317.673418815656</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2098.071953838597</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1808.996727182795</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1554.312238976908</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1264.895068939947</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1036.90551804193</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.1129388984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>599.6019060180513</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>451.6888124356582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>304.7988649377478</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>304.7988649377478</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2387.388512467612</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>119.4047645948089</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>18.61858572568036</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3575234924705342</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>37.12601365260596</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>117.6435571543363</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>143.8269525734172</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>48.42266963728767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42036229045108</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>109.0289520621393</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.60187266209422</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877455</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>4.186823682520782</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>119.4047645948079</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>12.6881692939113</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>86.11098998263074</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244618</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244617</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253129</v>
+        <v>270592.3620253124</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231922</v>
+        <v>115410.0540231924</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742647</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854462</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881988</v>
+        <v>62913.63765881972</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197474</v>
+        <v>27875.2536219748</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926346</v>
+        <v>206604.4229263461</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
+        <v>14826.69604186739</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14826.69604186746</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14826.6960418674</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14826.69604186742</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="F4" t="n">
-        <v>14826.69604186738</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186734</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14826.6960418674</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14826.69604186738</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
+        <v>14826.69604186742</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="O4" t="n">
         <v>14826.69604186738</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14826.69604186738</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14826.69604186742</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26470,7 +26470,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936822</v>
+        <v>76435.73471936821</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167415.630642127</v>
+        <v>-167415.6306421272</v>
       </c>
       <c r="C6" t="n">
-        <v>205831.1174534347</v>
+        <v>205831.1174534351</v>
       </c>
       <c r="D6" t="n">
-        <v>384651.5111564996</v>
+        <v>384651.5111564991</v>
       </c>
       <c r="E6" t="n">
-        <v>29218.17127321564</v>
+        <v>29183.43334778053</v>
       </c>
       <c r="F6" t="n">
-        <v>630661.3788474808</v>
+        <v>630626.6409220449</v>
       </c>
       <c r="G6" t="n">
-        <v>630661.3788474809</v>
+        <v>630626.6409220449</v>
       </c>
       <c r="H6" t="n">
-        <v>630661.378847481</v>
+        <v>630626.6409220451</v>
       </c>
       <c r="I6" t="n">
-        <v>630661.3788474806</v>
+        <v>630626.6409220452</v>
       </c>
       <c r="J6" t="n">
-        <v>581596.4341189362</v>
+        <v>581561.6961935008</v>
       </c>
       <c r="K6" t="n">
-        <v>567747.7411886611</v>
+        <v>567713.0032632255</v>
       </c>
       <c r="L6" t="n">
-        <v>602786.1252255063</v>
+        <v>602751.3873000703</v>
       </c>
       <c r="M6" t="n">
-        <v>473514.9982958828</v>
+        <v>473480.2603704475</v>
       </c>
       <c r="N6" t="n">
-        <v>630661.3788474811</v>
+        <v>630626.6409220451</v>
       </c>
       <c r="O6" t="n">
-        <v>630661.378847481</v>
+        <v>630626.6409220452</v>
       </c>
       <c r="P6" t="n">
-        <v>630661.378847481</v>
+        <v>630626.6409220452</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950623</v>
+        <v>758.8996292950619</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594716</v>
+        <v>431.9757039594714</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821575</v>
+        <v>210.429688382157</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262187</v>
+        <v>94.8110352426221</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039893</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931515</v>
+        <v>244.4501167931512</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666918</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734847</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931518</v>
+        <v>244.4501167931512</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666918</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931515</v>
+        <v>244.4501167931512</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666918</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734847</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>303.1332868360712</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>145.3269418685453</v>
+        <v>25.91829388988656</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871024</v>
+        <v>63.64367339871013</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038148</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>140.7300931897426</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,13 +27473,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
@@ -27515,16 +27515,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310518</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715738</v>
+        <v>75.2780011804752</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098415</v>
       </c>
     </row>
     <row r="4">
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>22.9616624409133</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410614</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>115.0068468261242</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760031</v>
+        <v>92.85788772760036</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>277.8926229469735</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.33195895898467</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493751</v>
+        <v>43.32085084937512</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>222.2619237555731</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304041</v>
+        <v>30.24193919304045</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589145</v>
+        <v>36.9111576058915</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>35.98957650409741</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
@@ -27831,7 +27831,7 @@
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>116.7323077922766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>206.7290644109346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>304.6272835584519</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>38.83159730767265</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27986,19 +27986,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>142.8541932576075</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>115.0412725006485</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>35.45192755253851</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31039,16 +31039,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
         <v>280.472093452864</v>
@@ -31057,28 +31057,28 @@
         <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
         <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061602</v>
@@ -31124,43 +31124,43 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31215,7 +31215,7 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085675</v>
+        <v>3.050852781085674</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429368</v>
+        <v>31.24454604429366</v>
       </c>
       <c r="I5" t="n">
         <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286706</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520273</v>
+        <v>388.0799144520271</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511781</v>
+        <v>481.4474502511779</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968104</v>
+        <v>535.7030533968102</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610702</v>
+        <v>544.37128886107</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191494</v>
+        <v>514.0343715191492</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860968</v>
+        <v>438.7164434860966</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634659</v>
+        <v>329.4577782634658</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098732</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489899</v>
+        <v>69.52130774898986</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920254</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868539</v>
+        <v>0.2440682224868538</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030889</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
         <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.2015291506249</v>
+        <v>56.20152915062488</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475938</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316633</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721893</v>
+        <v>354.4276051721891</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658089</v>
+        <v>413.6002979658087</v>
       </c>
       <c r="N6" t="n">
-        <v>424.547067146867</v>
+        <v>424.5470671468668</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374457</v>
+        <v>388.3776244374455</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872493</v>
+        <v>311.7072835872492</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.36806425475</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
         <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947723</v>
+        <v>30.32018801947722</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378887</v>
+        <v>6.579516597378883</v>
       </c>
       <c r="U6" t="n">
         <v>0.1073914569757164</v>
@@ -31437,46 +31437,46 @@
         <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377986</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734535</v>
+        <v>41.15475366734533</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463557</v>
+        <v>96.75348224635566</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260801</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162533</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539914</v>
+        <v>214.5197755399139</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752849</v>
+        <v>209.4189747528489</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275349</v>
+        <v>193.4323186275348</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515001</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054716</v>
+        <v>61.53307486054713</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391203</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830806</v>
+        <v>5.847259438830803</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656358</v>
+        <v>0.07464586517656355</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31528,10 +31528,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
         <v>612.3808166839008</v>
@@ -31540,22 +31540,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076062</v>
@@ -31607,19 +31607,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
         <v>234.3999545349506</v>
@@ -31628,10 +31628,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
         <v>0.1208081129062761</v>
@@ -31677,22 +31677,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595396</v>
@@ -31704,13 +31704,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
         <v>0.08397154077419852</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781367</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209205</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>264.8708611242914</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216798002</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>755.4040473746018</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33029,19 +33029,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,25 +33260,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>533.0479862785273</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>697.06562727909</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,7 +33983,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>189.0011860883002</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>716.71805534327</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>307.3280120589134</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
         <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
         <v>117.5966053606292</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198428</v>
+        <v>77.89141170198417</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070467</v>
+        <v>167.9900634070465</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811909</v>
+        <v>245.6810352811906</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695377</v>
+        <v>305.3568201695375</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644793</v>
+        <v>314.958225264479</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974627</v>
+        <v>283.9361600974624</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308272</v>
+        <v>207.483447730827</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890164</v>
+        <v>107.1520883890163</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092708</v>
+        <v>27.38366498092699</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573043</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923151</v>
+        <v>215.8732253923149</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437905</v>
+        <v>271.4662640437904</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635337</v>
+        <v>293.2053550635335</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930012</v>
+        <v>245.7813799930011</v>
       </c>
       <c r="P6" t="n">
-        <v>177.732876172919</v>
+        <v>177.7328761729189</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872844</v>
+        <v>68.38629016872835</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554484</v>
+        <v>29.98243465554475</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501498</v>
+        <v>68.57507023501489</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230898</v>
+        <v>75.59399159230887</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761582</v>
+        <v>81.73343028761573</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569214</v>
+        <v>54.97578017569205</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235245</v>
+        <v>27.78676100235236</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
         <v>382.9677530873099</v>
@@ -35188,7 +35188,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
         <v>148.31198861839</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
         <v>158.6780472169987</v>
@@ -35258,7 +35258,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319509</v>
@@ -35270,7 +35270,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
         <v>48.46489236084162</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948035</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410463</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0294221499325</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>395.047541899926</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>624.0623352912685</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>399.073578864197</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>554.9315933570717</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683826</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,7 +37631,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>574.5840214212516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.3462379728918</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
